--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\class 7 jjjjjj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B394715-8A3B-4A3D-9A2F-F73DF5C380EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F971139-6524-4654-B4E1-AA106ABC0409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A2A6A163-FF15-46FC-8D49-D2A4665332A9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t xml:space="preserve">data 1 </t>
   </si>
@@ -87,28 +87,67 @@
     <t>100-94</t>
   </si>
   <si>
-    <t>93-86</t>
-  </si>
-  <si>
-    <t>85-76</t>
-  </si>
-  <si>
-    <t>75-66</t>
-  </si>
-  <si>
-    <t>65-56</t>
-  </si>
-  <si>
-    <t>55-46</t>
-  </si>
-  <si>
-    <t>45-36</t>
-  </si>
-  <si>
-    <t>35-26</t>
-  </si>
-  <si>
-    <t>25-16</t>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>GRADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMARK </t>
+  </si>
+  <si>
+    <t>100-95</t>
+  </si>
+  <si>
+    <t>100-96</t>
+  </si>
+  <si>
+    <t>100-97</t>
+  </si>
+  <si>
+    <t>100-98</t>
+  </si>
+  <si>
+    <t>100-99</t>
+  </si>
+  <si>
+    <t>100-100</t>
+  </si>
+  <si>
+    <t>100-101</t>
+  </si>
+  <si>
+    <t>100-102</t>
+  </si>
+  <si>
+    <t>A++</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C+</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -137,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +191,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,23 +294,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1359,219 +1409,212 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
+      <c r="A3" s="4"/>
+      <c r="C3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="13">
+      <c r="D3" s="13">
         <v>100</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
+      <c r="E3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="A4" s="4"/>
+      <c r="C4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="13">
         <v>100</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
+      <c r="E4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="A5" s="4"/>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="13">
         <v>100</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
+      <c r="E5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="A6" s="4"/>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="13">
         <v>100</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
+      <c r="E6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="A7" s="4"/>
+      <c r="C7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="13">
         <v>100</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
+      <c r="E7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="13">
+      <c r="A8" s="4"/>
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="13">
         <v>100</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
+      <c r="E8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="A9" s="4"/>
+      <c r="C9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="13">
         <v>100</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
+      <c r="E9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="A10" s="4"/>
+      <c r="C10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="13">
         <v>100</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
+      <c r="E10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="13">
+      <c r="A11" s="4"/>
+      <c r="C11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="13">
         <v>100</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
+      <c r="E11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
+      <c r="A12" s="4"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
+      <c r="A13" s="4"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="11"/>
+      <c r="F18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
